--- a/medicine/Enfance/John_Dale/John_Dale.xlsx
+++ b/medicine/Enfance/John_Dale/John_Dale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">John Dale, né le 15 janvier 1953 à Sydney, est un écrivain australien, auteur de roman policier.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">John Dale fait des études à l'université technologique de Sydney.
 En 1996, il publie son premier roman, Dark Angel, pour lequel il est lauréat du prix Ned Kelly 1996 du meilleur premier roman. En 2000, il est remporte le même prix dans la catégorie True Crime pour son best-seller, Huckstepp: A Dangerous Life.
@@ -545,19 +559,20 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Romans
-Dark Angel (1996)
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Dark Angel (1996)
 The Dogs Are Barking (1999)
 Leaving Suzie Pye (2010)
-Detective Work (2015)
-Novellas
-Plenty (2013)
-Littérature d'enfance et de jeunesse
-Army of the Pure (2007)
-Autres ouvrages
-Huckstepp: A Dangerous Life (2000)
-Wild Life: A Story of Family, Infidelity and a Fatal Shooting (2004)</t>
+Detective Work (2015)</t>
         </is>
       </c>
     </row>
@@ -582,16 +597,164 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Novellas</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Plenty (2013)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>John_Dale</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/John_Dale</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Army of the Pure (2007)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>John_Dale</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/John_Dale</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Autres ouvrages</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Huckstepp: A Dangerous Life (2000)
+Wild Life: A Story of Family, Infidelity and a Fatal Shooting (2004)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>John_Dale</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/John_Dale</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Prix
-Prix Ned Kelly 1996 du meilleur premier roman pour Dark Angel[1]
-Prix Ned Kelly 2000 True Crime pour Huckstepp: A Dangerous Life[2]
-Nomination
-Prix Ned Kelly 1999 du meilleur roman pour The Dogs Are Barking[1]</t>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Prix</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Prix Ned Kelly 1996 du meilleur premier roman pour Dark Angel
+Prix Ned Kelly 2000 True Crime pour Huckstepp: A Dangerous Life</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>John_Dale</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/John_Dale</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Prix et distinctions</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Nomination</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Prix Ned Kelly 1999 du meilleur roman pour The Dogs Are Barking</t>
         </is>
       </c>
     </row>
